--- a/data/jobs/AARC GL Journal FBDI Validation Report Lovs_1502_1.xlsx
+++ b/data/jobs/AARC GL Journal FBDI Validation Report Lovs_1502_1.xlsx
@@ -214,10 +214,10 @@
     <t>XX_12_Ledger_Name</t>
   </si>
   <si>
-    <t>AARC GL Journal FBDI Validation Report_15021_10</t>
-  </si>
-  <si>
-    <t>AARCGL_FBDI_15021-10</t>
+    <t>AARC GL Journal FBDI Validation Report_15021_10_1</t>
+  </si>
+  <si>
+    <t>AARCGL_FBDI_15021_1902</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
